--- a/Data/editing/fbi_messy_sample_cleaning.xlsx
+++ b/Data/editing/fbi_messy_sample_cleaning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alli_1/Documents/Repos/fbi_stolen_art_research/Data/editing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F594C55-A54E-EA4F-901A-77AEA0A389A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF233D6-C9EE-2B44-9F84-D9CD800179FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{32B65F29-5E26-074F-BD90-74415B3236B5}"/>
+    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{32B65F29-5E26-074F-BD90-74415B3236B5}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="2058">
   <si>
     <t>Title</t>
   </si>
@@ -6201,7 +6201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6336,8 +6336,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6523,6 +6531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6684,11 +6698,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7046,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C5DF3-D8F5-9C44-A356-1916A08AF4B6}">
   <dimension ref="A1:I502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20431,101 +20448,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0725E59-B007-CB41-B1E1-990AC7FA3E42}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="28" max="28" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -20551,6 +20574,7 @@
       <c r="G2" t="s">
         <v>35</v>
       </c>
+      <c r="H2" s="6"/>
       <c r="I2" t="s">
         <v>36</v>
       </c>
@@ -20569,9 +20593,11 @@
       <c r="N2" t="s">
         <v>41</v>
       </c>
+      <c r="O2" s="6"/>
       <c r="P2" t="s">
         <v>42</v>
       </c>
+      <c r="Q2" s="6"/>
       <c r="R2" t="s">
         <v>43</v>
       </c>
@@ -20587,9 +20613,12 @@
       <c r="V2">
         <v>1954</v>
       </c>
+      <c r="W2" s="6"/>
       <c r="X2">
         <v>1954</v>
       </c>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" t="s">
         <v>43</v>
       </c>
@@ -20622,6 +20651,7 @@
       <c r="G3" t="s">
         <v>48</v>
       </c>
+      <c r="H3" s="6"/>
       <c r="I3" t="s">
         <v>49</v>
       </c>
@@ -20640,9 +20670,11 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
+      <c r="O3" s="6"/>
       <c r="P3" t="s">
         <v>52</v>
       </c>
+      <c r="Q3" s="6"/>
       <c r="R3" t="s">
         <v>43</v>
       </c>
@@ -20658,9 +20690,12 @@
       <c r="V3">
         <v>1965</v>
       </c>
+      <c r="W3" s="6"/>
       <c r="X3">
         <v>1965</v>
       </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
       <c r="AA3" t="s">
         <v>43</v>
       </c>
@@ -20693,6 +20728,7 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
+      <c r="H4" s="6"/>
       <c r="I4" t="s">
         <v>36</v>
       </c>
@@ -20711,9 +20747,11 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
+      <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>58</v>
       </c>
+      <c r="Q4" s="6"/>
       <c r="R4" t="s">
         <v>43</v>
       </c>
@@ -20729,9 +20767,12 @@
       <c r="V4">
         <v>1919</v>
       </c>
+      <c r="W4" s="6"/>
       <c r="X4">
         <v>1919</v>
       </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
       <c r="AA4" t="s">
         <v>43</v>
       </c>
@@ -20764,6 +20805,7 @@
       <c r="G5" t="s">
         <v>63</v>
       </c>
+      <c r="H5" s="6"/>
       <c r="I5" t="s">
         <v>64</v>
       </c>
@@ -20788,6 +20830,7 @@
       <c r="P5" t="s">
         <v>67</v>
       </c>
+      <c r="Q5" s="6"/>
       <c r="R5" t="s">
         <v>43</v>
       </c>
@@ -20803,9 +20846,12 @@
       <c r="V5">
         <v>1631</v>
       </c>
+      <c r="W5" s="6"/>
       <c r="X5">
         <v>1631</v>
       </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
       <c r="AA5" t="s">
         <v>43</v>
       </c>
@@ -20835,12 +20881,14 @@
       <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="H6" s="6"/>
       <c r="I6" t="s">
         <v>43</v>
       </c>
+      <c r="J6" s="6"/>
       <c r="K6" t="s">
         <v>39</v>
       </c>
@@ -20915,12 +20963,14 @@
       <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="H7" s="6"/>
       <c r="I7" t="s">
         <v>43</v>
       </c>
+      <c r="J7" s="6"/>
       <c r="K7" t="s">
         <v>51</v>
       </c>
@@ -20939,6 +20989,7 @@
       <c r="P7" t="s">
         <v>80</v>
       </c>
+      <c r="Q7" s="6"/>
       <c r="R7" t="s">
         <v>43</v>
       </c>
@@ -20954,9 +21005,12 @@
       <c r="V7">
         <v>1721</v>
       </c>
+      <c r="W7" s="6"/>
       <c r="X7">
         <v>1721</v>
       </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
       <c r="AA7" t="s">
         <v>43</v>
       </c>
@@ -20989,6 +21043,7 @@
       <c r="G8" t="s">
         <v>85</v>
       </c>
+      <c r="H8" s="6"/>
       <c r="I8" t="s">
         <v>64</v>
       </c>
@@ -21007,9 +21062,13 @@
       <c r="N8" t="s">
         <v>41</v>
       </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" t="s">
         <v>43</v>
       </c>
+      <c r="S8" s="6"/>
       <c r="T8" t="s">
         <v>43</v>
       </c>
@@ -21019,9 +21078,12 @@
       <c r="V8">
         <v>1924</v>
       </c>
+      <c r="W8" s="6"/>
       <c r="X8">
         <v>1924</v>
       </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" t="s">
         <v>43</v>
       </c>
@@ -21054,6 +21116,7 @@
       <c r="G9" t="s">
         <v>90</v>
       </c>
+      <c r="H9" s="6"/>
       <c r="I9" t="s">
         <v>36</v>
       </c>
@@ -21072,9 +21135,13 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="R9" t="s">
         <v>43</v>
       </c>
+      <c r="S9" s="6"/>
       <c r="T9" t="s">
         <v>43</v>
       </c>
@@ -21084,9 +21151,12 @@
       <c r="V9">
         <v>1943</v>
       </c>
+      <c r="W9" s="6"/>
       <c r="X9">
         <v>1943</v>
       </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" t="s">
         <v>43</v>
       </c>
@@ -21119,6 +21189,7 @@
       <c r="G10" t="s">
         <v>96</v>
       </c>
+      <c r="H10" s="6"/>
       <c r="I10" t="s">
         <v>64</v>
       </c>
@@ -21137,9 +21208,13 @@
       <c r="N10" t="s">
         <v>41</v>
       </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" t="s">
         <v>43</v>
       </c>
+      <c r="S10" s="6"/>
       <c r="T10" t="s">
         <v>43</v>
       </c>
@@ -21149,9 +21224,12 @@
       <c r="V10">
         <v>1697</v>
       </c>
+      <c r="W10" s="6"/>
       <c r="X10">
         <v>1697</v>
       </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" t="s">
         <v>43</v>
       </c>
@@ -21169,6 +21247,7 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="6"/>
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -21178,15 +21257,25 @@
       <c r="F11" t="s">
         <v>101</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" t="s">
         <v>102</v>
       </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" t="s">
         <v>41</v>
       </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="R11" t="s">
         <v>43</v>
       </c>
+      <c r="S11" s="6"/>
       <c r="T11" t="s">
         <v>43</v>
       </c>
@@ -21196,9 +21285,12 @@
       <c r="V11">
         <v>1682</v>
       </c>
+      <c r="W11" s="6"/>
       <c r="X11">
         <v>1682</v>
       </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
       <c r="AA11" t="s">
         <v>43</v>
       </c>
@@ -21231,6 +21323,7 @@
       <c r="G12" t="s">
         <v>105</v>
       </c>
+      <c r="H12" s="6"/>
       <c r="I12" t="s">
         <v>64</v>
       </c>
@@ -21240,12 +21333,16 @@
       <c r="K12" t="s">
         <v>51</v>
       </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" t="s">
         <v>106</v>
       </c>
       <c r="P12" t="s">
         <v>106</v>
       </c>
+      <c r="Q12" s="6"/>
       <c r="R12" t="s">
         <v>43</v>
       </c>
@@ -21261,8 +21358,14 @@
       <c r="V12">
         <v>1926</v>
       </c>
+      <c r="W12" s="6"/>
       <c r="X12">
         <v>1926</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" t="s">
+        <v>43</v>
       </c>
       <c r="AB12" t="s">
         <v>108</v>
